--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl4-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ccl4</t>
+  </si>
+  <si>
+    <t>Ccr5</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl4</t>
-  </si>
-  <si>
-    <t>Ccr5</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H2">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J2">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N2">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q2">
-        <v>0.07834730522099999</v>
+        <v>0.05835547707733334</v>
       </c>
       <c r="R2">
-        <v>0.705125746989</v>
+        <v>0.525199293696</v>
       </c>
       <c r="S2">
-        <v>5.580839403249198E-06</v>
+        <v>3.588769458178911E-06</v>
       </c>
       <c r="T2">
-        <v>5.580839403249198E-06</v>
+        <v>3.58876945817891E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H3">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I3">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J3">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N3">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O3">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P3">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q3">
-        <v>31.70413917499501</v>
+        <v>17.03504022938667</v>
       </c>
       <c r="R3">
-        <v>285.337252574955</v>
+        <v>153.31536206448</v>
       </c>
       <c r="S3">
-        <v>0.002258350924193412</v>
+        <v>0.001047628006074826</v>
       </c>
       <c r="T3">
-        <v>0.002258350924193411</v>
+        <v>0.001047628006074826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H4">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I4">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J4">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N4">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q4">
-        <v>0.03430807842000001</v>
+        <v>0.01151042674133334</v>
       </c>
       <c r="R4">
-        <v>0.30877270578</v>
+        <v>0.103593840672</v>
       </c>
       <c r="S4">
-        <v>2.443834862679859E-06</v>
+        <v>7.078730225298422E-07</v>
       </c>
       <c r="T4">
-        <v>2.443834862679859E-06</v>
+        <v>7.078730225298421E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.648873</v>
+        <v>0.2400906666666667</v>
       </c>
       <c r="H5">
-        <v>1.946619</v>
+        <v>0.720272</v>
       </c>
       <c r="I5">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="J5">
-        <v>0.00512780945587442</v>
+        <v>0.001631540293869566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N5">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O5">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P5">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q5">
-        <v>40.170593632578</v>
+        <v>9.424887248385778</v>
       </c>
       <c r="R5">
-        <v>361.535342693202</v>
+        <v>84.82398523547199</v>
       </c>
       <c r="S5">
-        <v>0.00286143385741508</v>
+        <v>0.0005796156453140317</v>
       </c>
       <c r="T5">
-        <v>0.00286143385741508</v>
+        <v>0.0005796156453140317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H6">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I6">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J6">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N6">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q6">
-        <v>6.691540111542666</v>
+        <v>22.31839391255467</v>
       </c>
       <c r="R6">
-        <v>60.22386100388399</v>
+        <v>200.865545212992</v>
       </c>
       <c r="S6">
-        <v>0.000476652140333094</v>
+        <v>0.001372545893555779</v>
       </c>
       <c r="T6">
-        <v>0.000476652140333094</v>
+        <v>0.001372545893555779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H7">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I7">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J7">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N7">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O7">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P7">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q7">
-        <v>2707.80875478722</v>
+        <v>6515.150885525773</v>
       </c>
       <c r="R7">
-        <v>24370.27879308498</v>
+        <v>58636.35796973197</v>
       </c>
       <c r="S7">
-        <v>0.1928827769194176</v>
+        <v>0.4006714653779098</v>
       </c>
       <c r="T7">
-        <v>0.1928827769194175</v>
+        <v>0.4006714653779098</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,14 +894,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H8">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I8">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J8">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N8">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q8">
-        <v>2.930207774853333</v>
+        <v>4.402230107282667</v>
       </c>
       <c r="R8">
-        <v>26.37186997368</v>
+        <v>39.620070965544</v>
       </c>
       <c r="S8">
-        <v>0.0002087247157190726</v>
+        <v>0.0002707301824635112</v>
       </c>
       <c r="T8">
-        <v>0.0002087247157190726</v>
+        <v>0.0002707301824635112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>55.419388</v>
+        <v>91.82408133333333</v>
       </c>
       <c r="H9">
-        <v>166.258164</v>
+        <v>275.472244</v>
       </c>
       <c r="I9">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="J9">
-        <v>0.4379594494225732</v>
+        <v>0.623992138981758</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N9">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O9">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P9">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q9">
-        <v>3430.917474936035</v>
+        <v>3604.603316191404</v>
       </c>
       <c r="R9">
-        <v>30878.25727442431</v>
+        <v>32441.42984572264</v>
       </c>
       <c r="S9">
-        <v>0.2443912956471035</v>
+        <v>0.2216773975278289</v>
       </c>
       <c r="T9">
-        <v>0.2443912956471034</v>
+        <v>0.2216773975278289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H10">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I10">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J10">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N10">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q10">
-        <v>0.004343069194222221</v>
+        <v>13.39035810786667</v>
       </c>
       <c r="R10">
-        <v>0.03908762274799999</v>
+        <v>120.5132229708</v>
       </c>
       <c r="S10">
-        <v>3.093657353215059E-07</v>
+        <v>0.0008234858254677163</v>
       </c>
       <c r="T10">
-        <v>3.093657353215058E-07</v>
+        <v>0.0008234858254677162</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H11">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I11">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J11">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N11">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O11">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P11">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q11">
-        <v>1.757472957006667</v>
+        <v>3908.892540645584</v>
       </c>
       <c r="R11">
-        <v>15.81725661306</v>
+        <v>35180.03286581025</v>
       </c>
       <c r="S11">
-        <v>0.0001251884069393459</v>
+        <v>0.2403907031139857</v>
       </c>
       <c r="T11">
-        <v>0.0001251884069393459</v>
+        <v>0.2403907031139856</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H12">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I12">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J12">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N12">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q12">
-        <v>0.001901818551111111</v>
+        <v>2.641204283816667</v>
       </c>
       <c r="R12">
-        <v>0.01711636696</v>
+        <v>23.77083855435</v>
       </c>
       <c r="S12">
-        <v>1.354704399587481E-07</v>
+        <v>0.0001624298821858882</v>
       </c>
       <c r="T12">
-        <v>1.35470439958748E-07</v>
+        <v>0.0001624298821858882</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.03596933333333333</v>
+        <v>55.09165833333333</v>
       </c>
       <c r="H13">
-        <v>0.107908</v>
+        <v>165.274975</v>
       </c>
       <c r="I13">
-        <v>0.0002842526774702687</v>
+        <v>0.3743763207243725</v>
       </c>
       <c r="J13">
-        <v>0.0002842526774702686</v>
+        <v>0.3743763207243724</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N13">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O13">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P13">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q13">
-        <v>2.226798576251555</v>
+        <v>2162.652448456664</v>
       </c>
       <c r="R13">
-        <v>20.041187186264</v>
+        <v>19463.87203610998</v>
       </c>
       <c r="S13">
-        <v>0.0001586194343556425</v>
+        <v>0.1329997019027332</v>
       </c>
       <c r="T13">
-        <v>0.0001586194343556424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>70.435768</v>
-      </c>
-      <c r="H14">
-        <v>211.307304</v>
-      </c>
-      <c r="I14">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J14">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.1207436666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.362231</v>
-      </c>
-      <c r="O14">
-        <v>0.001088347656299082</v>
-      </c>
-      <c r="P14">
-        <v>0.001088347656299082</v>
-      </c>
-      <c r="Q14">
-        <v>8.504672892802665</v>
-      </c>
-      <c r="R14">
-        <v>76.54205603522399</v>
-      </c>
-      <c r="S14">
-        <v>0.0006058053108274176</v>
-      </c>
-      <c r="T14">
-        <v>0.0006058053108274176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>70.435768</v>
-      </c>
-      <c r="H15">
-        <v>211.307304</v>
-      </c>
-      <c r="I15">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J15">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>48.86031500000001</v>
-      </c>
-      <c r="N15">
-        <v>146.580945</v>
-      </c>
-      <c r="O15">
-        <v>0.4404124107236949</v>
-      </c>
-      <c r="P15">
-        <v>0.4404124107236948</v>
-      </c>
-      <c r="Q15">
-        <v>3441.513811746921</v>
-      </c>
-      <c r="R15">
-        <v>30973.62430572228</v>
-      </c>
-      <c r="S15">
-        <v>0.2451460944731445</v>
-      </c>
-      <c r="T15">
-        <v>0.2451460944731445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>70.435768</v>
-      </c>
-      <c r="H16">
-        <v>211.307304</v>
-      </c>
-      <c r="I16">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J16">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.05287333333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.15862</v>
-      </c>
-      <c r="O16">
-        <v>0.0004765845696314243</v>
-      </c>
-      <c r="P16">
-        <v>0.0004765845696314243</v>
-      </c>
-      <c r="Q16">
-        <v>3.724173840053333</v>
-      </c>
-      <c r="R16">
-        <v>33.51756456048</v>
-      </c>
-      <c r="S16">
-        <v>0.0002652805486097131</v>
-      </c>
-      <c r="T16">
-        <v>0.0002652805486097131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>70.435768</v>
-      </c>
-      <c r="H17">
-        <v>211.307304</v>
-      </c>
-      <c r="I17">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="J17">
-        <v>0.5566284884440821</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>61.90825266666667</v>
-      </c>
-      <c r="N17">
-        <v>185.724758</v>
-      </c>
-      <c r="O17">
-        <v>0.5580226570503747</v>
-      </c>
-      <c r="P17">
-        <v>0.5580226570503746</v>
-      </c>
-      <c r="Q17">
-        <v>4360.555322114715</v>
-      </c>
-      <c r="R17">
-        <v>39244.99789903243</v>
-      </c>
-      <c r="S17">
-        <v>0.3106113081115005</v>
-      </c>
-      <c r="T17">
-        <v>0.3106113081115004</v>
+        <v>0.1329997019027332</v>
       </c>
     </row>
   </sheetData>
